--- a/9.xlsx
+++ b/9.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="12975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -172,9 +172,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -195,6 +192,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -205,12 +205,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -297,7 +300,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -548,6 +551,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E12C-4CB7-96C3-76700425FF03}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -759,6 +767,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E12C-4CB7-96C3-76700425FF03}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1461,7 +1474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1496,7 +1509,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1723,15 +1736,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1760,23 +1773,23 @@
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>100</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>42980</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>43010</v>
       </c>
       <c r="F3" s="3">
         <f>DATEDIF(D3,E3,"YD")</f>
         <v>30</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <f>IF(F3&lt;11,F3*C3,(F3*C3)/100*80)</f>
         <v>2400</v>
       </c>
@@ -1785,23 +1798,23 @@
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>200</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>42981</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>42988</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ref="F4:F11" si="0">DATEDIF(D4,E4,"YD")</f>
         <v>7</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <f t="shared" ref="G4:G11" si="1">IF(F4&lt;11,F4*C4,(F4*C4)/100*80)</f>
         <v>1400</v>
       </c>
@@ -1810,23 +1823,23 @@
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>300</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>42979</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>43003</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <f t="shared" si="1"/>
         <v>5760</v>
       </c>
@@ -1835,23 +1848,23 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>250</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>43192</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>43201</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <f t="shared" si="1"/>
         <v>2250</v>
       </c>
@@ -1860,23 +1873,23 @@
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>14</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>300</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>43132</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>43159</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <f t="shared" si="1"/>
         <v>6480</v>
       </c>
@@ -1885,23 +1898,23 @@
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>20</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>360</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>43169</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>43174</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
@@ -1910,23 +1923,23 @@
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>6</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>500</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>43189</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>43201</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <f t="shared" si="1"/>
         <v>4800</v>
       </c>
@@ -1935,23 +1948,23 @@
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>400</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>43008</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>43011</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
@@ -1960,178 +1973,181 @@
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>13</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>100</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>43003</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>43028</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="9" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="8">
+      <c r="F12" s="9"/>
+      <c r="G12" s="7">
         <f>SUM(G3,G4,G5,G6,G7,G8,G9,G10,G11)</f>
         <v>28090</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
